--- a/ResultadoEleicoesDistritos/AVEIRO_ESPINHO.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_ESPINHO.xlsx
@@ -597,64 +597,64 @@
         <v>8797</v>
       </c>
       <c r="H2" t="n">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="I2" t="n">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="J2" t="n">
-        <v>3631</v>
+        <v>3683</v>
       </c>
       <c r="K2" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" t="n">
-        <v>655</v>
+        <v>617</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
+        <v>51</v>
+      </c>
+      <c r="S2" t="n">
+        <v>447</v>
+      </c>
+      <c r="T2" t="n">
+        <v>618</v>
+      </c>
+      <c r="U2" t="n">
         <v>47</v>
       </c>
-      <c r="S2" t="n">
-        <v>377</v>
-      </c>
-      <c r="T2" t="n">
-        <v>632</v>
-      </c>
-      <c r="U2" t="n">
-        <v>53</v>
-      </c>
       <c r="V2" t="n">
-        <v>5638</v>
+        <v>5540</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>5614</v>
+        <v>5705</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AA2" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
